--- a/DATA/DATA Indonesia.xlsx
+++ b/DATA/DATA Indonesia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Coding\TETRIS3\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\Tetris III\TETRIS3\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01207C87-EB95-49B3-B4D4-A6D0D7E8A331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0B32D7-014F-4BDC-A56D-3943ADC11387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -128,10 +128,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
       <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -498,7 +498,7 @@
       <c r="C2" s="1">
         <v>11526332.800000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>255587.5</v>
       </c>
       <c r="E2">
@@ -540,7 +540,7 @@
       <c r="C3" s="1">
         <v>12401728.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>258496.5</v>
       </c>
       <c r="E3">
@@ -573,7 +573,7 @@
         <f t="shared" ref="O3:O9" si="3">(J3/L3)*100</f>
         <v>0</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>3085</v>
       </c>
       <c r="Q3">
@@ -590,7 +590,7 @@
       <c r="C4" s="1">
         <v>13589825.699999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>261355.5</v>
       </c>
       <c r="E4">
@@ -632,7 +632,7 @@
         <f t="shared" si="3"/>
         <v>63.294329030180272</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>29419</v>
       </c>
       <c r="Q4">
@@ -649,7 +649,7 @@
       <c r="C5" s="1">
         <v>14838756</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>264161.59999999998</v>
       </c>
       <c r="E5">
@@ -691,7 +691,7 @@
         <f t="shared" si="3"/>
         <v>60.437479320341936</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>9290</v>
       </c>
       <c r="Q5">
@@ -708,7 +708,7 @@
       <c r="C6" s="1">
         <v>15832657.199999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>266911.90000000002</v>
       </c>
       <c r="E6">
@@ -750,7 +750,7 @@
         <f t="shared" si="3"/>
         <v>58.948067264992012</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>12000</v>
       </c>
       <c r="Q6">
@@ -767,7 +767,7 @@
       <c r="C7" s="1">
         <v>15443353.199999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>270203.90000000002</v>
       </c>
       <c r="E7">
@@ -809,7 +809,7 @@
         <f t="shared" si="3"/>
         <v>57.871512159328198</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>56739</v>
       </c>
       <c r="Q7">
@@ -826,7 +826,7 @@
       <c r="C8" s="1">
         <v>16976690.800000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>272682.5</v>
       </c>
       <c r="E8">
@@ -868,7 +868,7 @@
         <f t="shared" si="3"/>
         <v>52.744241910620183</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>62931</v>
       </c>
       <c r="Q8">
@@ -885,7 +885,7 @@
       <c r="C9">
         <v>19588445.600000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>275773.8</v>
       </c>
       <c r="E9">
